--- a/Concetration_data.xlsx
+++ b/Concetration_data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concetration_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stop_condition" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21463,4 +21464,538 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>T_r [C]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>c_A0 [mol/m3]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c_B0 [mol/m3]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stezenie row [mol/m3]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time to stop [s]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Equilibrium</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.66276651666908</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13156</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9762392081105171</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22.30787541440503</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10185</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9800999948637183</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.32553303333816</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6578</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9762392076244717</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.69625935608671</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10087</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9761920806794702</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.36794841183291</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7817</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9800999947553234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>80</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29.39251871217342</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5043</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9761920800841721</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.7275355668656</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7867</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9761474440028058</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22.42414549539498</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6102</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9800999946050896</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>80</v>
+      </c>
+      <c r="E10" t="n">
+        <v>29.45507113373121</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3933</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9761474434913539</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.75680726426793</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6230</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9761051083942469</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.47682922220336</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4837</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9800999944433224</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>40</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
+        <v>29.51361452853587</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3115</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.976105108022057</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" t="n">
+        <v>40</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.78426043396709</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5003</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9760649026490645</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>60</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" t="n">
+        <v>22.52631839214438</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3888</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9800999943062074</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29.56852086793418</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2501</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9760649024069906</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>70</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.81005882221611</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4069</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9760266718906643</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40</v>
+      </c>
+      <c r="D18" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22.57289444291012</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3165</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9800999942324176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" t="n">
+        <v>40</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29.62011764443222</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2034</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9760266717495252</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>80</v>
+      </c>
+      <c r="C20" t="n">
+        <v>40</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.83434715317627</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3349</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9759902757035922</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80</v>
+      </c>
+      <c r="C21" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" t="n">
+        <v>40</v>
+      </c>
+      <c r="E21" t="n">
+        <v>22.61680675742978</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2606</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9800999942333054</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>80</v>
+      </c>
+      <c r="C22" t="n">
+        <v>40</v>
+      </c>
+      <c r="D22" t="n">
+        <v>80</v>
+      </c>
+      <c r="E22" t="n">
+        <v>29.66869430635254</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1674</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9759902756141141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>